--- a/jpcore-r4/feature/swg2-DiagnosticReportRadiologyCodeの指定/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg2-DiagnosticReportRadiologyCodeの指定/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T11:05:16+00:00</t>
+    <t>2022-09-01T00:31:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-DiagnosticReportRadiologyCodeの指定/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg2-DiagnosticReportRadiologyCodeの指定/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$34</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="343">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T00:31:30+00:00</t>
+    <t>2022-09-02T09:53:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -592,11 +592,41 @@
     <t>サービスカテゴリー</t>
   </si>
   <si>
-    <t>レポートを作成した臨床分野・部門、または診断サービス（CT, US, MRIなど）を分類するコード。 これは、検索、並べ替え、および表示の目的で使用される。</t>
-  </si>
-  <si>
-    <t>様々なカテゴリのシェーマを用いて複数のカテゴリを設定できる。 カテゴリの情報粒度はvalue setに定義されている。より詳細なフィルタリングの粒度が必要な場合はDiagnosticReport.codeのmetadata等を用いることで対応できる。
-【JP Core仕様】放射線レポートは ”RAD” をデフォルトとして設定。追加の情報については任意。</t>
+    <t>レポートを作成した臨床分野・部門、または診断サービス（CT, US, MRIなど）を分類するコード。 これは、検索、並べ替え、および表示の目的で使用される。【JP-Core仕様】放射線レポートは ”RAD” をデフォルトとして設定。追加の情報については任意で設定可能。</t>
+  </si>
+  <si>
+    <t>さまざまなカテゴリ化スキームを使用して、複数のカテゴリを使用できる。粒度のレベルは、それぞれの値セットのカテゴリの概念によって定義される。 DiagnosticReport.codeのメタデータや用語の階層を使用して、よりきめ細かいフィルタリングを実行できる。</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes for diagnostic service sections.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>OBR-24</t>
+  </si>
+  <si>
+    <t>inboundRelationship[typeCode=COMP].source[classCode=LIST, moodCode=EVN, code &lt; LabService].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>radiology</t>
+  </si>
+  <si>
+    <t>レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、MRIなど）を分類するコード。これは、検索、並べ替え、および表示の目的で使用される。</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -607,24 +637,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes for diagnostic service sections.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
-  </si>
-  <si>
-    <t>OBR-24</t>
-  </si>
-  <si>
-    <t>inboundRelationship[typeCode=COMP].source[classCode=LIST, moodCode=EVN, code &lt; LabService].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
     <t>DiagnosticReport.code</t>
   </si>
   <si>
@@ -638,11 +650,22 @@
     <t>この診断レポートを表現するコードや名称</t>
   </si>
   <si>
-    <t>すべての用語の使用がこの一般的なパターンに適合するわけではない。 場合によっては、モデルにcodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係と事前調整および事後調整を管理するための独自の構造を提供する必要がある。 
-【JP Core仕様】[画像診断レポート交換手順ガイドライン](https://www.jira-net.or.jp/publishing/files/jesra/JESRA_TR-0042_2018.pdf)「5.1 レポート種別コード」に記載されているLOINCコード [Diagnostic imaging study](https://loinc.org/18748-4/) を指定</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_DiagnosticReportRadiologyCode_VS</t>
+    <t>【JP Core仕様】[画像診断レポート交換手順ガイドライン](https://www.jira-net.or.jp/publishing/files/jesra/JESRA_TR-0042_2018.pdf)「5.1 レポート種別コード」に記載されているLOINCコード [Diagnostic imaging study](https://loinc.org/18748-4/) を指定。コードを指定できない場合はCodeableConceptを使用せずテキスト等を直接コーディングすることも許容されるが、要素間の調整と事前・事後の内容の整合性確保のために独自の構造を提供する必要があるので留意すること。</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="18748-4"/&gt;
+    &lt;display value="Diagnostic imaging study"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Codes that describe Diagnostic Reports.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/report-codes</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1423,7 +1446,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM33"/>
+  <dimension ref="A1:AM34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1456,7 +1479,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="48.453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.15234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
@@ -2972,46 +2995,44 @@
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W14" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="R14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W14" t="s" s="2">
+      <c r="X14" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA14" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>178</v>
@@ -3032,22 +3053,24 @@
         <v>79</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="C15" t="s" s="2">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3069,13 +3092,13 @@
         <v>180</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>194</v>
-      </c>
       <c r="M15" t="s" s="2">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3083,7 +3106,7 @@
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="R15" t="s" s="2">
         <v>79</v>
@@ -3101,11 +3124,13 @@
         <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="X15" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="Y15" t="s" s="2">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>79</v>
@@ -3123,13 +3148,13 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>79</v>
@@ -3138,35 +3163,35 @@
         <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
@@ -3175,26 +3200,24 @@
         <v>89</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="R16" t="s" s="2">
         <v>79</v>
@@ -3212,13 +3235,13 @@
         <v>79</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>79</v>
@@ -3236,10 +3259,10 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>88</v>
@@ -3251,25 +3274,25 @@
         <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3279,7 +3302,7 @@
         <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>79</v>
@@ -3288,19 +3311,19 @@
         <v>89</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>79</v>
@@ -3349,7 +3372,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3364,29 +3387,29 @@
         <v>100</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>88</v>
@@ -3401,19 +3424,19 @@
         <v>89</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>79</v>
@@ -3462,7 +3485,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -3477,35 +3500,35 @@
         <v>100</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
@@ -3514,19 +3537,19 @@
         <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>79</v>
@@ -3575,7 +3598,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -3590,35 +3613,35 @@
         <v>100</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -3627,19 +3650,19 @@
         <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>79</v>
@@ -3688,13 +3711,13 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
@@ -3703,25 +3726,25 @@
         <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3740,19 +3763,19 @@
         <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -3801,7 +3824,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -3816,16 +3839,16 @@
         <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>254</v>
       </c>
     </row>
     <row r="22" hidden="true">
@@ -3834,7 +3857,7 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>79</v>
+        <v>262</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3850,10 +3873,10 @@
         <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>263</v>
@@ -3862,10 +3885,10 @@
         <v>264</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -3929,16 +3952,16 @@
         <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>266</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>210</v>
+        <v>259</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>79</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" hidden="true">
@@ -3947,7 +3970,7 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>268</v>
+        <v>79</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3966,19 +3989,19 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -4045,22 +4068,22 @@
         <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>79</v>
+        <v>274</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4070,7 +4093,7 @@
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -4079,18 +4102,20 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4138,7 +4163,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4156,7 +4181,7 @@
         <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>281</v>
@@ -4165,13 +4190,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>282</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>283</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4181,29 +4206,27 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>288</v>
-      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4269,10 +4292,10 @@
         <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>289</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -4280,18 +4303,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>79</v>
@@ -4300,10 +4323,10 @@
         <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>90</v>
+        <v>290</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>291</v>
@@ -4311,8 +4334,12 @@
       <c r="L26" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+      <c r="M26" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
@@ -4360,28 +4387,28 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -4389,18 +4416,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>79</v>
@@ -4412,17 +4439,15 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>135</v>
+        <v>297</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -4471,19 +4496,19 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>79</v>
@@ -4492,7 +4517,7 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -4500,11 +4525,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>299</v>
+        <v>133</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4517,26 +4542,24 @@
         <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>134</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>300</v>
+        <v>135</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="N28" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
       </c>
@@ -4584,7 +4607,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4605,7 +4628,7 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>131</v>
+        <v>300</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -4613,42 +4636,42 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>79</v>
+        <v>305</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>306</v>
+        <v>137</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>307</v>
+        <v>143</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -4697,19 +4720,19 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>79</v>
@@ -4718,13 +4741,13 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>309</v>
       </c>
@@ -4734,33 +4757,35 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
@@ -4811,7 +4836,7 @@
         <v>309</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>88</v>
@@ -4841,11 +4866,11 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>316</v>
+        <v>79</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>88</v>
@@ -4857,10 +4882,10 @@
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>90</v>
+        <v>316</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>317</v>
@@ -4871,9 +4896,7 @@
       <c r="M31" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="N31" t="s" s="2">
-        <v>320</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
@@ -4924,7 +4947,7 @@
         <v>315</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>88</v>
@@ -4939,32 +4962,32 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" hidden="true">
-      <c r="A32" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
@@ -4973,18 +4996,20 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5008,13 +5033,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>327</v>
+        <v>79</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>328</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5032,13 +5057,13 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>79</v>
@@ -5050,18 +5075,18 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5075,7 +5100,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -5084,20 +5109,18 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>335</v>
-      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
@@ -5121,13 +5144,13 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
+        <v>333</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>79</v>
+        <v>334</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -5145,7 +5168,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5163,17 +5186,130 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM33">
+  <autoFilter ref="A1:AM34">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5183,7 +5319,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI32">
+  <conditionalFormatting sqref="A2:AI33">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
